--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -1158,6 +1158,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1669,9 +1672,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>